--- a/app/Recursos Marcas/Majo'R/Plantilla modificada.xlsx
+++ b/app/Recursos Marcas/Majo'R/Plantilla modificada.xlsx
@@ -106,16 +106,16 @@
     <t>Botin Tacon Julia</t>
   </si>
   <si>
-    <t xml:space="preserve">Botin exotic </t>
+    <t xml:space="preserve">Botin Exotic </t>
   </si>
   <si>
     <t xml:space="preserve">Botin Fashion Ly </t>
   </si>
   <si>
-    <t xml:space="preserve">Botin kim </t>
-  </si>
-  <si>
-    <t>Botin santorini</t>
+    <t xml:space="preserve">Botin Kim </t>
+  </si>
+  <si>
+    <t>Botin Santorini</t>
   </si>
   <si>
     <t>Zapatos</t>
@@ -196,7 +196,7 @@
     <t>["https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Bota+Gucci/Bota+Gucci+1+Blanco.PNG", "https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Bota+Gucci/Bota+Gucci+2+Beige.PNG", "https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Bota+Gucci/Bota+Gucci+3+Negro.jpg"]</t>
   </si>
   <si>
-    <t>["https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Avejita/Bota+Avejita+1+Negro.jpg"]</t>
+    <t>["https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Avejita/Botin+Avejita+1+Negro.jpg"]</t>
   </si>
   <si>
     <t>["https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Taches/Botin+Taches+1+Beige.PNG", "https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Taches/Botin+Taches+2+Negro.PNG", "https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Taches/Botin+Taches+3+Blanco.PNG"]</t>
@@ -208,16 +208,16 @@
     <t>["https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Tacon+Julia/Botin+Tacon+Julia+1+Negro.jpg", "https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Tacon+Julia/Botin+Tacon+Julia+2+Blanco.jpg"]</t>
   </si>
   <si>
-    <t>["https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+exotic/Botin+Exotic+1+Negro.jpg"]</t>
+    <t>["https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Exotic/Botin+Exotic+1+Negro.jpg"]</t>
   </si>
   <si>
     <t>["https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Fashion+Ly/botin+fashion+ly+1+negro.jpg", "https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Fashion+Ly/botin+fashion+ly+2+blanco.jpg"]</t>
   </si>
   <si>
-    <t>["https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+kim/Botin+Kim+1+Blanco.jpg", "https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+kim/Botin+Kim+2+Negro.PNG"]</t>
-  </si>
-  <si>
-    <t>["https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+santorini/Botin+Santorini+1+Beige.jpg", "https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+santorini/Botin+Santorini+2+Negro.jpg"]</t>
+    <t>["https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Kim/Botin+Kim+1+Blanco.jpg", "https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Kim/Botin+Kim+2+Negro.PNG"]</t>
+  </si>
+  <si>
+    <t>["https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Santorini/Botin+Santorini+1+Beige.jpg", "https://recursosmolova.s3.amazonaws.com/Products+Images/Majo'R/Botin+Santorini/Botin+Santorini+2+Negro.jpg"]</t>
   </si>
 </sst>
 </file>
